--- a/Lecture/FIT/2023_24/KB13results.xlsx
+++ b/Lecture/FIT/2023_24/KB13results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\FIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3DEEE8-EE60-47DD-826A-0826C46FE6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD247A23-AB07-499B-949B-64F345E535C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t xml:space="preserve">Алєксєєва Аліна </t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>ЗМ1</t>
+  </si>
+  <si>
+    <t>модуль2</t>
+  </si>
+  <si>
+    <t>ЗМ2</t>
+  </si>
+  <si>
+    <t>Всього</t>
   </si>
 </sst>
 </file>
@@ -199,7 +208,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -361,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F84A9-B269-47AE-AE42-7FB32606CF96}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +531,7 @@
     <col min="1" max="1" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -538,8 +547,26 @@
       <c r="F1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +586,28 @@
         <f>SUM(B2:E2)+7</f>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>SUM(I2:L2)+7</f>
+        <v>16.5</v>
+      </c>
+      <c r="O2">
+        <f>SUM(F2,M2)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -580,8 +627,28 @@
         <f t="shared" ref="F3:F27" si="0">SUM(B3:E3)+7</f>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M27" si="1">SUM(I3:L3)+7</f>
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O27" si="2">SUM(F3,M3)</f>
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -598,11 +665,31 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B4:E4)+6</f>
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -622,8 +709,28 @@
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1.5</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -643,8 +750,28 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -664,8 +791,28 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -685,8 +832,28 @@
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -706,8 +873,28 @@
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
+        <v>3.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -727,8 +914,28 @@
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -748,8 +955,28 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2.5</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -769,8 +996,28 @@
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -790,8 +1037,28 @@
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -811,8 +1078,28 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -823,17 +1110,37 @@
         <v>1.5</v>
       </c>
       <c r="D15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>3.5</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1.5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -853,8 +1160,28 @@
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2.5</v>
+      </c>
+      <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -874,8 +1201,28 @@
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2.5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -895,8 +1242,28 @@
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1.5</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -916,8 +1283,28 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -934,11 +1321,29 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -958,8 +1363,28 @@
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -979,8 +1404,28 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1000,8 +1445,28 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1021,8 +1486,28 @@
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1042,8 +1527,28 @@
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1.5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1063,8 +1568,28 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1.5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1083,6 +1608,26 @@
       <c r="F27">
         <f t="shared" si="0"/>
         <v>18</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1.5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>

--- a/Lecture/FIT/2023_24/KB13results.xlsx
+++ b/Lecture/FIT/2023_24/KB13results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\FIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD247A23-AB07-499B-949B-64F345E535C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF4FBEC-EC6B-42A2-90C6-F8DF6979E225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1284,7 @@
         <v>20</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>0.5</v>
@@ -1297,11 +1297,11 @@
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>30.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1446,7 +1446,7 @@
         <v>23</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>0.5</v>
@@ -1459,11 +1459,11 @@
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">

--- a/Lecture/FIT/2023_24/KB13results.xlsx
+++ b/Lecture/FIT/2023_24/KB13results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\FIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\FIT\2023_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF4FBEC-EC6B-42A2-90C6-F8DF6979E225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723E2A6E-E78D-474D-9F86-39BCCA238DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -224,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,15 +523,15 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -566,7 +566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,21 +593,21 @@
         <v>1.5</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2">
-        <f>SUM(I2:L2)+7</f>
-        <v>16.5</v>
+        <f>SUM(I2:L2)+8.5</f>
+        <v>18.5</v>
       </c>
       <c r="O2">
         <f>SUM(F2,M2)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -634,21 +634,21 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M27" si="1">SUM(I3:L3)+7</f>
-        <v>26</v>
+        <f t="shared" ref="M3:M27" si="1">SUM(I3:L3)+8.5</f>
+        <v>28</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O27" si="2">SUM(F3,M3)</f>
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -665,8 +665,8 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUM(B4:E4)+6</f>
-        <v>15</v>
+        <f>SUM(B4:E4)+7</f>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -681,15 +681,15 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f>SUM(I4:L4)+7</f>
         <v>9</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,18 +719,18 @@
         <v>1.5</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -741,14 +741,14 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
         <v>3.5</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -757,21 +757,21 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -805,14 +805,14 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -839,21 +839,21 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>8</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -887,14 +887,14 @@
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -927,15 +927,14 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -959,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K11">
         <v>2.5</v>
@@ -969,14 +968,14 @@
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1010,14 +1009,14 @@
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1051,14 +1050,14 @@
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1075,8 +1074,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1091,15 +1089,14 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1126,21 +1123,21 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1.5</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1174,14 +1171,14 @@
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1215,14 +1212,14 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1256,14 +1253,14 @@
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1290,21 +1287,21 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1377,14 +1374,14 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1411,21 +1408,21 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1452,21 +1449,21 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L23">
         <v>6</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1493,21 +1490,21 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L24">
         <v>7</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1540,7 +1537,7 @@
         <v>1.5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f>SUM(I25:L25)+7</f>
         <v>12.5</v>
       </c>
       <c r="O25">
@@ -1548,7 +1545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1578,18 +1575,18 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>1.5</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <f>SUM(I27:L27)+7</f>
         <v>10.5</v>
       </c>
       <c r="O27">

--- a/Lecture/FIT/2023_24/KB13results.xlsx
+++ b/Lecture/FIT/2023_24/KB13results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\FIT\2023_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723E2A6E-E78D-474D-9F86-39BCCA238DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05AD8F7-C74B-49A1-BF8C-80FCE9C134D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
+    <workbookView xWindow="10995" yWindow="420" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M27" si="1">SUM(I3:L3)+8.5</f>
+        <f t="shared" ref="M3:M26" si="1">SUM(I3:L3)+8.5</f>
         <v>28</v>
       </c>
       <c r="O3">
@@ -839,18 +839,18 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
         <v>8</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Lecture/FIT/2023_24/KB13results.xlsx
+++ b/Lecture/FIT/2023_24/KB13results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\FIT\2023_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05AD8F7-C74B-49A1-BF8C-80FCE9C134D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106DBDA7-97F2-4339-B9EC-D02582B4E12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="420" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,18 +961,18 @@
         <v>1.5</v>
       </c>
       <c r="K11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>8</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>43.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1002,18 +1002,18 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
         <v>4</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Lecture/FIT/2023_24/KB13results.xlsx
+++ b/Lecture/FIT/2023_24/KB13results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\FIT\2023_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106DBDA7-97F2-4339-B9EC-D02582B4E12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D94B5A-73DD-4F10-B92B-C57A5419CA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="420" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,18 +634,18 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M26" si="1">SUM(I3:L3)+8.5</f>
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O27" si="2">SUM(F3,M3)</f>
-        <v>52.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Lecture/FIT/2023_24/KB13results.xlsx
+++ b/Lecture/FIT/2023_24/KB13results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\FIT\2023_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NMK\Lecture\FIT\2023_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D94B5A-73DD-4F10-B92B-C57A5419CA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A68EFA8-DED3-4168-890F-D16ADF6DEDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10995" yWindow="420" windowWidth="17760" windowHeight="14190" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
+    <workbookView xWindow="6852" yWindow="84" windowWidth="16188" windowHeight="10944" xr2:uid="{29B7FD67-8F9F-4472-97D9-AC5C3DC00363}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -224,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,16 +522,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F84A9-B269-47AE-AE42-7FB32606CF96}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -566,7 +566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -648,7 +648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -689,7 +689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,7 +730,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -757,21 +757,21 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -812,7 +812,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -853,7 +853,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -894,7 +894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -934,7 +934,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -975,7 +975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1164,21 +1164,21 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>3.5</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1246,21 +1246,21 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>4</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
